--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2021/ifoCAst_error_tables_last_rep_first_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2021/ifoCAst_error_tables_last_rep_first_since_2021_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1173111006628075</v>
+        <v>0.1255218910902343</v>
       </c>
       <c r="C2">
-        <v>0.7750634440136263</v>
+        <v>0.7467324375882298</v>
       </c>
       <c r="D2">
-        <v>0.9090828250629025</v>
+        <v>0.8624827145106858</v>
       </c>
       <c r="E2">
-        <v>0.9534583499361168</v>
+        <v>0.9286994748090933</v>
       </c>
       <c r="F2">
-        <v>0.9753350649363759</v>
+        <v>0.9468550248872103</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
